--- a/Submit/Team_10_Week_11_181121_The_Veil/Feedback/Team Feedback.xlsx
+++ b/Submit/Team_10_Week_11_181121_The_Veil/Feedback/Team Feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Feedback</t>
   </si>
@@ -465,6 +465,17 @@
 File name was correct (close-enough... make sure there is no doubt for next submission!) (Martin)
 We maybe need better communication on build dates, to ensure file names, and all supporting documents are included (Team)
 </t>
+  </si>
+  <si>
+    <t>Note Down everything you've learnt to bring up in reflection (but ask Ken) [Martin]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a good place, feels we are aware of game's weaknesses, but it might go beyond the scope
+of this module to make all adjustments. (Martin) </t>
+  </si>
+  <si>
+    <t>"Team could produce a clear road-map on how they would address this [game weaknesses]
+going forward" - reflection (Martin)</t>
   </si>
 </sst>
 </file>
@@ -846,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,9 +1160,24 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>43421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B52" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
